--- a/app/config/tables/MASKTABLET/Forms/MASKTABLET/MASKTABLET.xlsx
+++ b/app/config/tables/MASKTABLET/Forms/MASKTABLET/MASKTABLET.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D6F7E-7A3A-4B8C-9D1D-6714E1BF87A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920F4EB2-680B-4466-81B3-43253E1BE669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="728" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="112">
   <si>
     <t>setting_name</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>PREENCHIDO</t>
-  </si>
-  <si>
-    <t>VISITA</t>
   </si>
   <si>
     <t>COBERTURA</t>
@@ -1185,11 +1182,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,21 +1317,21 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
       <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1386,40 +1383,42 @@
       <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
@@ -1428,12 +1427,12 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
@@ -1441,13 +1440,11 @@
       <c r="C22" t="b">
         <v>0</v>
       </c>
-      <c r="D22" t="s">
-        <v>112</v>
-      </c>
+      <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
@@ -1459,33 +1456,35 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
-      <c r="D24"/>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
@@ -1494,15 +1493,15 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -1513,10 +1512,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -1527,21 +1526,21 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -1550,26 +1549,26 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C31" t="b">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -1578,12 +1577,12 @@
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
@@ -1591,13 +1590,11 @@
       <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D33" t="s">
-        <v>101</v>
-      </c>
+      <c r="D33"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
         <v>49</v>
@@ -1608,29 +1605,29 @@
       <c r="D34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" t="b">
-        <v>0</v>
-      </c>
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
       <c r="D36"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1639,10 +1636,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1651,7 +1648,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
@@ -1663,10 +1660,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -1711,10 +1708,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -1723,7 +1720,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
         <v>49</v>
@@ -1734,29 +1731,29 @@
       <c r="D45"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" t="b">
-        <v>0</v>
-      </c>
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
       <c r="D46"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
       <c r="D47"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -1768,7 +1765,7 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -1800,22 +1797,10 @@
       <c r="D51"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" t="b">
-        <v>0</v>
-      </c>
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
       <c r="D52"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
